--- a/kompas_scraped_data_full_content.xlsx
+++ b/kompas_scraped_data_full_content.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAKARTA, KOMPAS.com  - Kepala Satgas Humas Operasi Damai Cartenz Kombes Bayu Suseno menceritakan detik-detik sebelum pilot Susi Air Philip Mark Mehrtens dilepas Kelompok Kriminal Bersenjata (KKB) untuk diserahkan kepada aparat di Nduga, Papua. Ketika aparat menjemput Philip, banyak anggota KKB di sekitarnya. "Bukan diantar, tapi ada di sekelilingnya pilot itu ada banyak OAP (orang asli Papua), ya diduga itu KKB," ujar Bayu kepada  Kompas.com,  Minggu (22/9/2024). Baca juga:  Sosok Edison Nggwijangge di Balik Pembebasan Pilot Susi Air, Setahun Lebih Pendekatan dengan KKB Meski ada banyak anggota KKB di lokasi penjemputan Philip, tetapi tidak ada ancaman sama sekali. Anggota KKB yang mengelilingi Philip juga tidak membawa senjata. "Tidak ada. Mereka tidak bawa senjata," ucap Bayu. Baca juga:  Dibebaskan di Nduga, Pilot Susi Air Philip Langsung Diterbangkan ke Timika Menurut Bayu, pihaknya pertama kali mendapatkan titik koordinat lokasi Philip akan dilepaskan KKB pada Sabtu (21/9/2024) pukul 09.00 WIT. Selanjutnya, aparat langsung membentuk tim negosiator untuk menuju ke lokasi yang ditetapkan KKB pimpinan Egianus Kogoya tersebut. "Ternyata benar, di sana sudah ada pilot dan kemudian kami melakukan upaya komunikasi lebih dahulu," jelas Bayu. "Dan  alhamdulillah  sekitar jam 10.30 WIT, akhirnya pilot dapat dibawa menggunakan helikopter menuju ke Timika," sambung dia. Baca juga:  Kebahagiaan Pilot Susi Air, Bebas Setelah 19 Bulan Disandera KKB Philip kembali dengan kondisi yang stabil secara emosi maupun fisik. Secara umum, kata dia, fisik Philip juga sehat. Hanya saja dia lebih kurus. "Hanya terlihat lebih kurus dari sebelumnya," imbuh Bayu. Baca juga:  Pilot Susi Air Bebas Usai Disandera KKB Selama 1,5 Tahun, Kapolri: Kerja Keras Seluruh Tim Philip untuk pertama kalinya berbicara di depan media setelah dirinya bebas dari penyanderaan yang berlangsung 19 bulan. Sejak 7 Februari 2024, Philip disandera KKB pimpinan Egianus Kogoya, di Kabupaten Nduga, Papua Pegunungan. Sabtu (21/9/2024) siang, ia akhirnya dibebaskan dan dibawa ke Mimika, Papua Tengah. </t>
+          <t xml:space="preserve">JAKARTA, KOMPAS.com  - Kepala Satgas Humas Operasi Damai Cartenz Kombes Bayu Suseno menceritakan detik-detik sebelum pilot Susi Air Philip Mark Mehrtens dilepas Kelompok Kriminal Bersenjata (KKB) untuk diserahkan kepada aparat di Nduga, Papua. Ketika aparat menjemput Philip, banyak anggota KKB di sekitarnya. "Bukan diantar, tapi ada di sekelilingnya pilot itu ada banyak OAP (orang asli Papua), ya diduga itu KKB," ujar Bayu kepada  Kompas.com,  Minggu (22/9/2024). Baca juga:  Sosok Edison Nggwijangge di Balik Pembebasan Pilot Susi Air, Setahun Lebih Pendekatan dengan KKB Meski ada banyak anggota KKB di lokasi penjemputan Philip, tetapi tidak ada ancaman sama sekali. Anggota KKB yang mengelilingi Philip juga tidak membawa senjata. "Tidak ada. Mereka tidak bawa senjata," ucap Bayu. Baca juga:  Pilot Susi Air Philip Mehrtens Bebas Usai Disandera KKB 19 Bulan, Ini Strategi Polri Menurut Bayu, pihaknya pertama kali mendapatkan titik koordinat lokasi Philip akan dilepaskan KKB pada Sabtu (21/9/2024) pukul 09.00 WIT. Selanjutnya, aparat langsung membentuk tim negosiator untuk menuju ke lokasi yang ditetapkan KKB pimpinan Egianus Kogoya tersebut. "Ternyata benar, di sana sudah ada pilot dan kemudian kami melakukan upaya komunikasi lebih dahulu," jelas Bayu. "Dan  alhamdulillah  sekitar jam 10.30 WIT, akhirnya pilot dapat dibawa menggunakan helikopter menuju ke Timika," sambung dia. Baca juga:  Kebahagiaan Pilot Susi Air, Bebas Setelah 19 Bulan Disandera KKB Philip kembali dengan kondisi yang stabil secara emosi maupun fisik. Secara umum, kata dia, fisik Philip juga sehat. Hanya saja dia lebih kurus. "Hanya terlihat lebih kurus dari sebelumnya," imbuh Bayu. Baca juga:  Sosok Edison Nggwijangge di Balik Pembebasan Pilot Susi Air, Setahun Lebih Pendekatan dengan KKB Philip untuk pertama kalinya berbicara di depan media setelah dirinya bebas dari penyanderaan yang berlangsung 19 bulan. Sejak 7 Februari 2024, Philip disandera KKB pimpinan Egianus Kogoya, di Kabupaten Nduga, Papua Pegunungan. Sabtu (21/9/2024) siang, ia akhirnya dibebaskan dan dibawa ke Mimika, Papua Tengah. </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
